--- a/project/GC_content.xlsx
+++ b/project/GC_content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="60" windowWidth="21760" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="1920" yWindow="640" windowWidth="25620" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,24 +436,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="275571688"/>
-        <c:axId val="275610904"/>
+        <c:axId val="275729928"/>
+        <c:axId val="258639896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="275571688"/>
+        <c:axId val="275729928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275610904"/>
+        <c:crossAx val="258639896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275610904"/>
+        <c:axId val="258639896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +461,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275571688"/>
+        <c:crossAx val="275729928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -548,11 +548,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="496919688"/>
-        <c:axId val="273892600"/>
+        <c:axId val="342192104"/>
+        <c:axId val="258703224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="496919688"/>
+        <c:axId val="342192104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,14 +568,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273892600"/>
+        <c:crossAx val="258703224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273892600"/>
+        <c:axId val="258703224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +583,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496919688"/>
+        <c:crossAx val="342192104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,24 +1225,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="275044568"/>
-        <c:axId val="275101480"/>
+        <c:axId val="342750792"/>
+        <c:axId val="342593160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="275044568"/>
+        <c:axId val="342750792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275101480"/>
+        <c:crossAx val="342593160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275101480"/>
+        <c:axId val="342593160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,1073 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275044568"/>
+        <c:crossAx val="342750792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dinucleotide frequencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Escherichia coli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TG</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0725086201686134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0553513202098932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0518226037364198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0670386319867272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.070370777936116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0591060009306787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0726678974063529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0515253597102807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0580035525988735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0810759719356079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.058601531155785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0551523614457964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0458382253980507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0581367429072486</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.069741384837505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0730590176360502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Streptomyces coelicolor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TG</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0160789040476226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0574817064807065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0475484618954314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0185304090207608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0505561331468254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113789566382465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.147069425587138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0483997187804187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0631958842811904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125397825650485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.114180848575447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0573943499425611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00980867040698428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.063145634945089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0513701723916674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0160522884652041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saccharomyces cerevisiae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TG</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.10945524997193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0520466965896658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0589921745873837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0907213897222592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0645479042150696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0381002551027069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0285012650692067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05772123044626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0631424893533133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0367555478963818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0381067828075919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0521883477856719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0740692145604374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0619681552444886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0645935981492651</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.109089698498366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rubrobacter xylanophilus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TG</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0198050250066108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.044260755725728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0616799767619717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0220305560231475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0461796910917068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122317094304048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.123622838368911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0612921596145017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0658362233615965</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12053487145768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12051658112059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0444662895137157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0159553740575438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0662990618917106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0455348792078238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0196686224927125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiribacter curvatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GG</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GT</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TG</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.0284683618546373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0496789731292464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0507310692764049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0513570327462979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0641571033358766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0886221018047056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.116438029097439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0507139409227511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0694969973477003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.111821678267233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0873764033571573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0499478363775089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0181129744683722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0698084219595874</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.064097932659618</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0291711433954625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="375525944"/>
+        <c:axId val="375484984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375525944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375484984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375484984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="375525944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nucleotide frequencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Escherichia coli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.246721130776324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253669989381519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.252833554398586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246775325443569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Streptomyces coelicolor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.139639576461093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.359814804159584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.360168868673319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.140376750706003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saccharomyces cerevisiae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.311215307719071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188870531544134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.190193696460615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.309720464276179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rubrobacter xylanophilus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14777626770597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.353411673819529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.351354166537497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.147457891937001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiribacter curvatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18023534345705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.319931009103455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.318643269001692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181190378437801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="448763432"/>
+        <c:axId val="287384280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448763432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="287384280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="287384280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448763432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,15 +2370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1356,6 +2422,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1687,7 +2813,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2213,6 +3339,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/project/GC_content.xlsx
+++ b/project/GC_content.xlsx
@@ -436,24 +436,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="275729928"/>
-        <c:axId val="258639896"/>
+        <c:axId val="517104200"/>
+        <c:axId val="69694136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="275729928"/>
+        <c:axId val="517104200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258639896"/>
+        <c:crossAx val="69694136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258639896"/>
+        <c:axId val="69694136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +461,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275729928"/>
+        <c:crossAx val="517104200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -548,11 +548,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="342192104"/>
-        <c:axId val="258703224"/>
+        <c:axId val="342553944"/>
+        <c:axId val="479407896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342192104"/>
+        <c:axId val="342553944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,14 +568,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258703224"/>
+        <c:crossAx val="479407896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258703224"/>
+        <c:axId val="479407896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +583,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342192104"/>
+        <c:crossAx val="342553944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,24 +1225,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="342750792"/>
-        <c:axId val="342593160"/>
+        <c:axId val="341923816"/>
+        <c:axId val="70364872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342750792"/>
+        <c:axId val="341923816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342593160"/>
+        <c:crossAx val="70364872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342593160"/>
+        <c:axId val="70364872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342750792"/>
+        <c:crossAx val="341923816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1938,24 +1938,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="375525944"/>
-        <c:axId val="375484984"/>
+        <c:axId val="243461896"/>
+        <c:axId val="274576952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375525944"/>
+        <c:axId val="243461896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375484984"/>
+        <c:crossAx val="274576952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375484984"/>
+        <c:axId val="274576952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1963,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375525944"/>
+        <c:crossAx val="243461896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,24 +2291,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="448763432"/>
-        <c:axId val="287384280"/>
+        <c:axId val="243495208"/>
+        <c:axId val="278402664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448763432"/>
+        <c:axId val="243495208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287384280"/>
+        <c:crossAx val="278402664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287384280"/>
+        <c:axId val="278402664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2316,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448763432"/>
+        <c:crossAx val="243495208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3339,7 +3339,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/project/GC_content.xlsx
+++ b/project/GC_content.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushuhan/comparative_genomics/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9720892-86E5-2843-9914-52A7960C9B2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="640" windowWidth="25620" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="10020" yWindow="4320" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -22,66 +28,66 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>All</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>All</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Escherichia coli</t>
   </si>
   <si>
     <t>Species</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Streptomyces coelicolor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Saccharomyces cerevisiae</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rubrobacter xylanophilus</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Spiribacter curvatus</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Genome length</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Chromosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Family</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Enterobacteriaceae</t>
@@ -100,86 +106,86 @@
   </si>
   <si>
     <t>GA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Genome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GC content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SUM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -191,10 +197,6 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -238,10 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,14 +258,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -282,19 +299,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>A</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -325,16 +345,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.246721130776324</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.139639576461093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.311215307719071</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14777626770597</c:v>
+                  <c:v>0.24672113077632399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13963957646109301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31121530771907102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14777626770596999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.18023534345705</c:v>
@@ -342,6 +362,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D1E-CF43-9207-B1F7519AA361}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -349,6 +374,7 @@
           <c:tx>
             <c:v>C</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$6</c:f>
@@ -356,7 +382,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.253669989381519</c:v>
+                  <c:v>0.25366998938151902</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.359814804159584</c:v>
@@ -365,14 +391,19 @@
                   <c:v>0.188870531544134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.353411673819529</c:v>
+                  <c:v>0.35341167381952898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.319931009103455</c:v>
+                  <c:v>0.31993100910345501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D1E-CF43-9207-B1F7519AA361}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -380,6 +411,7 @@
           <c:tx>
             <c:v>G</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$6</c:f>
@@ -387,23 +419,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.252833554398586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.360168868673319</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.190193696460615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.351354166537497</c:v>
+                  <c:v>0.25283355439858601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36016886867331899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19019369646061501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35135416653749701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.318643269001692</c:v>
+                  <c:v>0.31864326900169199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D1E-CF43-9207-B1F7519AA361}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -411,6 +448,7 @@
           <c:tx>
             <c:v>T</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$6</c:f>
@@ -427,7 +465,7 @@
                   <c:v>0.309720464276179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.147457891937001</c:v>
+                  <c:v>0.14745789193700101</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.181190378437801</c:v>
@@ -435,7 +473,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D1E-CF43-9207-B1F7519AA361}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="517104200"/>
         <c:axId val="69694136"/>
       </c:barChart>
@@ -444,22 +496,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="69694136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="69694136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="517104200"/>
         <c:crosses val="autoZero"/>
@@ -468,38 +528,51 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>GC content</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -530,24 +603,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.506503543780105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.719983672832903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.379064228004749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.379064228004749</c:v>
+                  <c:v>0.50650354378010498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71998367283290299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37906422800474898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70476584035702705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.638573946659247</c:v>
+                  <c:v>0.638574278105148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B99-0947-91DB-8A6589FA9101}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="342553944"/>
         <c:axId val="479407896"/>
       </c:barChart>
@@ -556,7 +643,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -573,15 +664,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="479407896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="342553944"/>
         <c:crosses val="autoZero"/>
@@ -589,20 +684,30 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -620,29 +725,32 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0557956658478914"/>
-          <c:y val="0.0912280701754386"/>
-          <c:w val="0.870440990794518"/>
-          <c:h val="0.8379916079569"/>
+          <c:x val="5.5795665847891397E-2"/>
+          <c:y val="9.1228070175438603E-2"/>
+          <c:w val="0.87044099079451798"/>
+          <c:h val="0.83799160795689998"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>AA</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -673,23 +781,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0725086201686134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0160789040476226</c:v>
+                  <c:v>7.2508620168613397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6078904047622598E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.10945524997193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0198050250066108</c:v>
+                  <c:v>1.9805025006610799E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0284683618546373</c:v>
+                  <c:v>2.8468361854637299E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -697,6 +810,7 @@
           <c:tx>
             <c:v>AC</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -727,23 +841,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0553513202098932</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0574817064807065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0520466965896658</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.044260755725728</c:v>
+                  <c:v>5.5351320209893203E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7481706480706503E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2046696589665799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4260755725727997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0496789731292464</c:v>
+                  <c:v>4.96789731292464E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -751,6 +870,7 @@
           <c:tx>
             <c:v>AG</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -781,23 +901,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0518226037364198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0475484618954314</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0589921745873837</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0616799767619717</c:v>
+                  <c:v>5.1822603736419802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7548461895431403E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8992174587383699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1679976761971698E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0507310692764049</c:v>
+                  <c:v>5.0731069276404903E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -805,6 +930,7 @@
           <c:tx>
             <c:v>AT</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -835,23 +961,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0670386319867272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0185304090207608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0907213897222592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0220305560231475</c:v>
+                  <c:v>6.7038631986727201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85304090207608E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0721389722259196E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2030556023147501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0513570327462979</c:v>
+                  <c:v>5.1357032746297902E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -859,6 +990,7 @@
           <c:tx>
             <c:v>CA</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$7</c:f>
@@ -866,23 +998,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.070370777936116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0505561331468254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0645479042150696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0461796910917068</c:v>
+                  <c:v>7.0370777936116E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0556133146825402E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4547904215069604E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6179691091706797E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0641571033358766</c:v>
+                  <c:v>6.4157103335876597E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -890,6 +1027,7 @@
           <c:tx>
             <c:v>CC</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$6</c:f>
@@ -897,23 +1035,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0591060009306787</c:v>
+                  <c:v>5.91060009306787E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.113789566382465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0381002551027069</c:v>
+                  <c:v>3.8100255102706898E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.122317094304048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0886221018047056</c:v>
+                  <c:v>8.8622101804705603E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -921,6 +1064,7 @@
           <c:tx>
             <c:v>CG</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$6</c:f>
@@ -928,13 +1072,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0726678974063529</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.147069425587138</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0285012650692067</c:v>
+                  <c:v>7.2667897406352905E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14706942558713801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8501265069206701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.123622838368911</c:v>
@@ -945,6 +1089,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -952,6 +1101,7 @@
           <c:tx>
             <c:v>CT</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$2:$N$6</c:f>
@@ -959,23 +1109,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0515253597102807</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0483997187804187</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05772123044626</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0612921596145017</c:v>
+                  <c:v>5.1525359710280702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8399718780418703E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.772123044626E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1292159614501698E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0507139409227511</c:v>
+                  <c:v>5.0713940922751097E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -983,6 +1138,7 @@
           <c:tx>
             <c:v>GA</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$2:$O$6</c:f>
@@ -990,23 +1146,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0580035525988735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0631958842811904</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0631424893533133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0658362233615965</c:v>
+                  <c:v>5.8003552598873499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3195884281190398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3142489353313305E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5836223361596502E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0694969973477003</c:v>
+                  <c:v>6.9496997347700304E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1014,6 +1175,7 @@
           <c:tx>
             <c:v>GC</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$P$2:$P$6</c:f>
@@ -1021,23 +1183,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0810759719356079</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125397825650485</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0367555478963818</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12053487145768</c:v>
+                  <c:v>8.1075971935607893E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12539782565048499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6755547896381802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12053487145768001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.111821678267233</c:v>
+                  <c:v>0.11182167826723299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1045,6 +1212,7 @@
           <c:tx>
             <c:v>GG</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$6</c:f>
@@ -1052,23 +1220,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.058601531155785</c:v>
+                  <c:v>5.8601531155785001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.114180848575447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0381067828075919</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12051658112059</c:v>
+                  <c:v>3.8106782807591902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12051658112058999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0873764033571573</c:v>
+                  <c:v>8.7376403357157295E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1076,6 +1249,7 @@
           <c:tx>
             <c:v>GT</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$R$2:$R$6</c:f>
@@ -1083,23 +1257,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0551523614457964</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0573943499425611</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0521883477856719</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0444662895137157</c:v>
+                  <c:v>5.5152361445796397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7394349942561103E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2188347785671899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4466289513715701E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0499478363775089</c:v>
+                  <c:v>4.9947836377508902E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -1107,6 +1286,7 @@
           <c:tx>
             <c:v>TA</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$S$2:$S$6</c:f>
@@ -1114,23 +1294,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0458382253980507</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00980867040698428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0740692145604374</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0159553740575438</c:v>
+                  <c:v>4.58382253980507E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8086704069842798E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4069214560437399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5955374057543801E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0181129744683722</c:v>
+                  <c:v>1.8112974468372199E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -1138,6 +1323,7 @@
           <c:tx>
             <c:v>TC</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$T$2:$T$6</c:f>
@@ -1145,23 +1331,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0581367429072486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.063145634945089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0619681552444886</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0662990618917106</c:v>
+                  <c:v>5.8136742907248601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3145634945088999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.19681552444886E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6299061891710601E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0698084219595874</c:v>
+                  <c:v>6.9808421959587405E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -1169,6 +1360,7 @@
           <c:tx>
             <c:v>TG</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$U$2:$U$6</c:f>
@@ -1176,23 +1368,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.069741384837505</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0513701723916674</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0645935981492651</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0455348792078238</c:v>
+                  <c:v>6.9741384837504999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1370172391667399E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4593598149265102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.55348792078238E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.064097932659618</c:v>
+                  <c:v>6.4097932659617995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -1200,6 +1397,7 @@
           <c:tx>
             <c:v>TT</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$V$2:$V$6</c:f>
@@ -1207,24 +1405,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0730590176360502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0160522884652041</c:v>
+                  <c:v>7.3059017636050202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6052288465204099E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.109089698498366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0196686224927125</c:v>
+                  <c:v>1.9668622492712499E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0291711433954625</c:v>
+                  <c:v>2.91711433954625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-4BE5-D74E-96C2-6C4D2A824636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="341923816"/>
         <c:axId val="70364872"/>
       </c:barChart>
@@ -1233,22 +1445,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="70364872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="70364872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="341923816"/>
         <c:crosses val="autoZero"/>
@@ -1257,23 +1477,33 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1291,13 +1521,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1312,6 +1544,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$1:$V$1</c:f>
@@ -1375,56 +1608,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0725086201686134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0553513202098932</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0518226037364198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0670386319867272</c:v>
+                  <c:v>7.2508620168613397E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5351320209893203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1822603736419802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7038631986727201E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.070370777936116</c:v>
+                  <c:v>7.0370777936116E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0591060009306787</c:v>
+                  <c:v>5.91060009306787E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0726678974063529</c:v>
+                  <c:v>7.2667897406352905E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0515253597102807</c:v>
+                  <c:v>5.1525359710280702E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0580035525988735</c:v>
+                  <c:v>5.8003552598873499E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0810759719356079</c:v>
+                  <c:v>8.1075971935607893E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.058601531155785</c:v>
+                  <c:v>5.8601531155785001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0551523614457964</c:v>
+                  <c:v>5.5152361445796397E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0458382253980507</c:v>
+                  <c:v>4.58382253980507E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0581367429072486</c:v>
+                  <c:v>5.8136742907248601E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.069741384837505</c:v>
+                  <c:v>6.9741384837504999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0730590176360502</c:v>
+                  <c:v>7.3059017636050202E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A3E-2C43-9010-330B806BFA4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1440,6 +1678,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$1:$V$1</c:f>
@@ -1503,56 +1742,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0160789040476226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0574817064807065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0475484618954314</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0185304090207608</c:v>
+                  <c:v>1.6078904047622598E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7481706480706503E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7548461895431403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.85304090207608E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0505561331468254</c:v>
+                  <c:v>5.0556133146825402E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.113789566382465</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.147069425587138</c:v>
+                  <c:v>0.14706942558713801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0483997187804187</c:v>
+                  <c:v>4.8399718780418703E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0631958842811904</c:v>
+                  <c:v>6.3195884281190398E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125397825650485</c:v>
+                  <c:v>0.12539782565048499</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.114180848575447</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0573943499425611</c:v>
+                  <c:v>5.7394349942561103E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00980867040698428</c:v>
+                  <c:v>9.8086704069842798E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.063145634945089</c:v>
+                  <c:v>6.3145634945088999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0513701723916674</c:v>
+                  <c:v>5.1370172391667399E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0160522884652041</c:v>
+                  <c:v>1.6052288465204099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A3E-2C43-9010-330B806BFA4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1568,6 +1812,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$1:$V$1</c:f>
@@ -1634,46 +1879,46 @@
                   <c:v>0.10945524997193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0520466965896658</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0589921745873837</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0907213897222592</c:v>
+                  <c:v>5.2046696589665799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8992174587383699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0721389722259196E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0645479042150696</c:v>
+                  <c:v>6.4547904215069604E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0381002551027069</c:v>
+                  <c:v>3.8100255102706898E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0285012650692067</c:v>
+                  <c:v>2.8501265069206701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05772123044626</c:v>
+                  <c:v>5.772123044626E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0631424893533133</c:v>
+                  <c:v>6.3142489353313305E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0367555478963818</c:v>
+                  <c:v>3.6755547896381802E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0381067828075919</c:v>
+                  <c:v>3.8106782807591902E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0521883477856719</c:v>
+                  <c:v>5.2188347785671899E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0740692145604374</c:v>
+                  <c:v>7.4069214560437399E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0619681552444886</c:v>
+                  <c:v>6.19681552444886E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0645935981492651</c:v>
+                  <c:v>6.4593598149265102E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.109089698498366</c:v>
@@ -1681,6 +1926,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A3E-2C43-9010-330B806BFA4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1696,6 +1946,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$1:$V$1</c:f>
@@ -1759,19 +2010,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0198050250066108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.044260755725728</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0616799767619717</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0220305560231475</c:v>
+                  <c:v>1.9805025006610799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4260755725727997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1679976761971698E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2030556023147501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0461796910917068</c:v>
+                  <c:v>4.6179691091706797E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.122317094304048</c:v>
@@ -1780,35 +2031,40 @@
                   <c:v>0.123622838368911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0612921596145017</c:v>
+                  <c:v>6.1292159614501698E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0658362233615965</c:v>
+                  <c:v>6.5836223361596502E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12053487145768</c:v>
+                  <c:v>0.12053487145768001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12051658112059</c:v>
+                  <c:v>0.12051658112058999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0444662895137157</c:v>
+                  <c:v>4.4466289513715701E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0159553740575438</c:v>
+                  <c:v>1.5955374057543801E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0662990618917106</c:v>
+                  <c:v>6.6299061891710601E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0455348792078238</c:v>
+                  <c:v>4.55348792078238E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0196686224927125</c:v>
+                  <c:v>1.9668622492712499E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A3E-2C43-9010-330B806BFA4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1824,6 +2080,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$1:$V$1</c:f>
@@ -1887,57 +2144,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0284683618546373</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0496789731292464</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0507310692764049</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0513570327462979</c:v>
+                  <c:v>2.8468361854637299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.96789731292464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0731069276404903E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1357032746297902E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0641571033358766</c:v>
+                  <c:v>6.4157103335876597E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0886221018047056</c:v>
+                  <c:v>8.8622101804705603E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.116438029097439</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0507139409227511</c:v>
+                  <c:v>5.0713940922751097E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0694969973477003</c:v>
+                  <c:v>6.9496997347700304E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.111821678267233</c:v>
+                  <c:v>0.11182167826723299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0873764033571573</c:v>
+                  <c:v>8.7376403357157295E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0499478363775089</c:v>
+                  <c:v>4.9947836377508902E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0181129744683722</c:v>
+                  <c:v>1.8112974468372199E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0698084219595874</c:v>
+                  <c:v>6.9808421959587405E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.064097932659618</c:v>
+                  <c:v>6.4097932659617995E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0291711433954625</c:v>
+                  <c:v>2.91711433954625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9A3E-2C43-9010-330B806BFA4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="243461896"/>
         <c:axId val="274576952"/>
       </c:barChart>
@@ -1946,22 +2217,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="274576952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="274576952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="243461896"/>
         <c:crosses val="autoZero"/>
@@ -1970,23 +2249,33 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:style val="18"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2004,13 +2293,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2025,6 +2316,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
@@ -2052,13 +2344,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.246721130776324</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.253669989381519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.252833554398586</c:v>
+                  <c:v>0.24672113077632399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25366998938151902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25283355439858601</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.246775325443569</c:v>
@@ -2066,6 +2358,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8617-0448-B49D-FE40556EE707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2081,6 +2378,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
@@ -2108,13 +2406,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.139639576461093</c:v>
+                  <c:v>0.13963957646109301</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.359814804159584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.360168868673319</c:v>
+                  <c:v>0.36016886867331899</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.140376750706003</c:v>
@@ -2122,6 +2420,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8617-0448-B49D-FE40556EE707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2137,6 +2440,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
@@ -2164,13 +2468,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.311215307719071</c:v>
+                  <c:v>0.31121530771907102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.188870531544134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.190193696460615</c:v>
+                  <c:v>0.19019369646061501</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.309720464276179</c:v>
@@ -2178,6 +2482,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8617-0448-B49D-FE40556EE707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2193,6 +2502,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
@@ -2220,20 +2530,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14777626770597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.353411673819529</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.351354166537497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.147457891937001</c:v>
+                  <c:v>0.14777626770596999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35341167381952898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35135416653749701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14745789193700101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8617-0448-B49D-FE40556EE707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2249,6 +2564,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$E$1</c:f>
@@ -2279,10 +2595,10 @@
                   <c:v>0.18023534345705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.319931009103455</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.318643269001692</c:v>
+                  <c:v>0.31993100910345501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31864326900169199</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.181190378437801</c:v>
@@ -2290,7 +2606,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8617-0448-B49D-FE40556EE707}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="243495208"/>
         <c:axId val="278402664"/>
       </c:barChart>
@@ -2299,22 +2629,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="278402664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="278402664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="243495208"/>
         <c:crosses val="autoZero"/>
@@ -2323,13 +2661,15 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2352,7 +2692,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2382,7 +2728,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2412,7 +2764,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2442,7 +2800,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2472,7 +2836,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2809,21 +3179,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2894,8 +3265,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -2919,7 +3290,7 @@
       <c r="H2">
         <v>5.5351320209893203E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>5.1822603736419802E-2</v>
       </c>
       <c r="J2">
@@ -2966,8 +3337,8 @@
         <v>0.99999999999999922</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -3038,8 +3409,8 @@
         <v>0.99999999999999667</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -3110,8 +3481,8 @@
         <v>0.99999999999999811</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -3127,7 +3498,7 @@
         <v>0.14745789193700101</v>
       </c>
       <c r="F5">
-        <v>0.37906422800474898</v>
+        <v>0.70476584035702705</v>
       </c>
       <c r="G5">
         <v>1.9805025006610799E-2</v>
@@ -3182,8 +3553,8 @@
         <v>0.99999999999999845</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -3199,7 +3570,7 @@
         <v>0.181190378437801</v>
       </c>
       <c r="F6">
-        <v>0.63857394665924705</v>
+        <v>0.638574278105148</v>
       </c>
       <c r="G6">
         <v>2.8468361854637299E-2</v>
@@ -3254,92 +3625,92 @@
         <v>0.99999999999999845</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>5443340</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>9054847</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>1531933</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>3225748</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1926631</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/project/GC_content.xlsx
+++ b/project/GC_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushuhan/comparative_genomics/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9720892-86E5-2843-9914-52A7960C9B2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A404063-94CA-F240-A368-952E31DED61F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="4320" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>All</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -179,6 +179,81 @@
   <si>
     <t>SUM</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>09.proteome</t>
+  </si>
+  <si>
+    <t>17.proteome</t>
+  </si>
+  <si>
+    <t>24.proteome</t>
+  </si>
+  <si>
+    <t>49.proteome</t>
+  </si>
+  <si>
+    <t>51.proteome</t>
   </si>
 </sst>
 </file>
@@ -3180,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3709,6 +3784,393 @@
         <v>1926631</v>
       </c>
     </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" t="s">
+        <v>56</v>
+      </c>
+      <c r="S53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>9.3613566706673201E-2</v>
+      </c>
+      <c r="C54">
+        <v>5.7652891381401603E-2</v>
+      </c>
+      <c r="D54">
+        <v>3.9869929607913898E-2</v>
+      </c>
+      <c r="E54">
+        <v>5.13547192288119E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.21454727264146E-2</v>
+      </c>
+      <c r="G54">
+        <v>4.4274058494688302E-2</v>
+      </c>
+      <c r="H54">
+        <v>5.7225615627833799E-2</v>
+      </c>
+      <c r="I54">
+        <v>7.2821180633056801E-2</v>
+      </c>
+      <c r="J54">
+        <v>2.2916010341348599E-2</v>
+      </c>
+      <c r="K54">
+        <v>5.9003592942679997E-2</v>
+      </c>
+      <c r="L54">
+        <v>0.104399409721735</v>
+      </c>
+      <c r="M54">
+        <v>4.4356325020375301E-2</v>
+      </c>
+      <c r="N54">
+        <v>2.79042953330008E-2</v>
+      </c>
+      <c r="O54">
+        <v>3.9222638727509002E-2</v>
+      </c>
+      <c r="P54">
+        <v>4.45572083970526E-2</v>
+      </c>
+      <c r="Q54">
+        <v>6.0441662829687798E-2</v>
+      </c>
+      <c r="R54">
+        <v>5.4744227632114298E-2</v>
+      </c>
+      <c r="S54">
+        <v>1.5325807327970399E-2</v>
+      </c>
+      <c r="T54">
+        <v>2.87180324397955E-2</v>
+      </c>
+      <c r="U54">
+        <v>6.9453354879935494E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>0.131025484113753</v>
+      </c>
+      <c r="C55">
+        <v>0.111009118384247</v>
+      </c>
+      <c r="D55">
+        <v>1.2903447666789299E-2</v>
+      </c>
+      <c r="E55">
+        <v>5.7639567863459397E-2</v>
+      </c>
+      <c r="F55">
+        <v>1.02547629821891E-2</v>
+      </c>
+      <c r="G55">
+        <v>3.2654475995757701E-2</v>
+      </c>
+      <c r="H55">
+        <v>5.0797848852249597E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.11136394365624699</v>
+      </c>
+      <c r="J55">
+        <v>3.0210558318347E-2</v>
+      </c>
+      <c r="K55">
+        <v>2.1211751750484301E-2</v>
+      </c>
+      <c r="L55">
+        <v>9.0395255032618096E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.52367755292484E-2</v>
+      </c>
+      <c r="N55">
+        <v>1.38710108534329E-2</v>
+      </c>
+      <c r="O55">
+        <v>2.00421569937702E-2</v>
+      </c>
+      <c r="P55">
+        <v>7.5317525632999593E-2</v>
+      </c>
+      <c r="Q55">
+        <v>5.2276938780135701E-2</v>
+      </c>
+      <c r="R55">
+        <v>5.3677482585034901E-2</v>
+      </c>
+      <c r="S55">
+        <v>1.2420447626930099E-2</v>
+      </c>
+      <c r="T55">
+        <v>1.49675303613981E-2</v>
+      </c>
+      <c r="U55">
+        <v>8.2723917020905702E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>5.3331783331350698E-2</v>
+      </c>
+      <c r="C56">
+        <v>4.4745493279119301E-2</v>
+      </c>
+      <c r="D56">
+        <v>6.3367145004487799E-2</v>
+      </c>
+      <c r="E56">
+        <v>5.9987780216928098E-2</v>
+      </c>
+      <c r="F56">
+        <v>1.26334173218128E-2</v>
+      </c>
+      <c r="G56">
+        <v>3.8686968087982401E-2</v>
+      </c>
+      <c r="H56">
+        <v>6.7622441144982795E-2</v>
+      </c>
+      <c r="I56">
+        <v>4.8854800860791699E-2</v>
+      </c>
+      <c r="J56">
+        <v>2.1987499053777799E-2</v>
+      </c>
+      <c r="K56">
+        <v>6.5832729553491204E-2</v>
+      </c>
+      <c r="L56">
+        <v>9.4914191169314197E-2</v>
+      </c>
+      <c r="M56">
+        <v>7.5167886842645901E-2</v>
+      </c>
+      <c r="N56">
+        <v>2.0476247120781201E-2</v>
+      </c>
+      <c r="O56">
+        <v>4.2920636293837099E-2</v>
+      </c>
+      <c r="P56">
+        <v>4.3126101672920698E-2</v>
+      </c>
+      <c r="Q56">
+        <v>9.0353400452023794E-2</v>
+      </c>
+      <c r="R56">
+        <v>5.8446789873801003E-2</v>
+      </c>
+      <c r="S56">
+        <v>9.8271928022233505E-3</v>
+      </c>
+      <c r="T56">
+        <v>3.3615217414812902E-2</v>
+      </c>
+      <c r="U56">
+        <v>5.4102278502914297E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>0.117431278221199</v>
+      </c>
+      <c r="C57">
+        <v>0.106918308820835</v>
+      </c>
+      <c r="D57">
+        <v>1.52293168512829E-2</v>
+      </c>
+      <c r="E57">
+        <v>4.34496839669722E-2</v>
+      </c>
+      <c r="F57">
+        <v>8.5522656342810009E-3</v>
+      </c>
+      <c r="G57">
+        <v>2.5970998015980899E-2</v>
+      </c>
+      <c r="H57">
+        <v>7.4613327234352905E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.109766103362173</v>
+      </c>
+      <c r="J57">
+        <v>2.6066479626333801E-2</v>
+      </c>
+      <c r="K57">
+        <v>2.9468289557975601E-2</v>
+      </c>
+      <c r="L57">
+        <v>0.105685929896513</v>
+      </c>
+      <c r="M57">
+        <v>1.8201459536336801E-2</v>
+      </c>
+      <c r="N57">
+        <v>1.6641556483478901E-2</v>
+      </c>
+      <c r="O57">
+        <v>2.66371487858847E-2</v>
+      </c>
+      <c r="P57">
+        <v>7.5147358101559106E-2</v>
+      </c>
+      <c r="Q57">
+        <v>5.23638915195676E-2</v>
+      </c>
+      <c r="R57">
+        <v>3.7143456678549999E-2</v>
+      </c>
+      <c r="S57">
+        <v>1.06861686005393E-2</v>
+      </c>
+      <c r="T57">
+        <v>2.1486693083245498E-2</v>
+      </c>
+      <c r="U57">
+        <v>7.8540286022935502E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>0.11910853009170801</v>
+      </c>
+      <c r="C58">
+        <v>8.4882639211902006E-2</v>
+      </c>
+      <c r="D58">
+        <v>2.3269093256874599E-2</v>
+      </c>
+      <c r="E58">
+        <v>6.29013558451295E-2</v>
+      </c>
+      <c r="F58">
+        <v>9.8269266816159006E-3</v>
+      </c>
+      <c r="G58">
+        <v>3.6751178467540897E-2</v>
+      </c>
+      <c r="H58">
+        <v>5.8473858500586597E-2</v>
+      </c>
+      <c r="I58">
+        <v>8.7307262414695594E-2</v>
+      </c>
+      <c r="J58">
+        <v>2.4464916726255299E-2</v>
+      </c>
+      <c r="K58">
+        <v>5.0085738286483897E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.103101157293308</v>
+      </c>
+      <c r="M58">
+        <v>1.7822802913018999E-2</v>
+      </c>
+      <c r="N58">
+        <v>2.4343425227189099E-2</v>
+      </c>
+      <c r="O58">
+        <v>3.0719993335323399E-2</v>
+      </c>
+      <c r="P58">
+        <v>5.3103934241858303E-2</v>
+      </c>
+      <c r="Q58">
+        <v>5.4098428941357697E-2</v>
+      </c>
+      <c r="R58">
+        <v>5.23125039050839E-2</v>
+      </c>
+      <c r="S58">
+        <v>1.3445637760946301E-2</v>
+      </c>
+      <c r="T58">
+        <v>2.1083981866525901E-2</v>
+      </c>
+      <c r="U58">
+        <v>7.2896635032594401E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/GC_content.xlsx
+++ b/project/GC_content.xlsx
@@ -8,13 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushuhan/comparative_genomics/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A404063-94CA-F240-A368-952E31DED61F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A30AF-E916-1A47-AF0E-166FD4770396}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$54</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$55</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$56</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$57</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$53:$U$53</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$54:$U$54</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$55:$U$55</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$56:$U$56</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$57:$U$57</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$58:$U$58</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$54</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$55</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$58:$U$58</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$56</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$A$57</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$B$53:$U$53</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$54:$U$54</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$55:$U$55</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$56:$U$56</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$57:$U$57</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -25,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>All</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -239,21 +263,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>09.proteome</t>
-  </si>
-  <si>
-    <t>17.proteome</t>
-  </si>
-  <si>
-    <t>24.proteome</t>
-  </si>
-  <si>
-    <t>49.proteome</t>
-  </si>
-  <si>
-    <t>51.proteome</t>
   </si>
 </sst>
 </file>
@@ -2748,6 +2757,1656 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Amino acid frequencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Escherichia coli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$U$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$U$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.3613566706673201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7652891381401603E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9869929607913898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.13547192288119E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21454727264146E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4274058494688302E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7225615627833799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2821180633056801E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2916010341348599E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9003592942679997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104399409721735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4356325020375301E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.79042953330008E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9222638727509002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.45572083970526E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0441662829687798E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4744227632114298E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5325807327970399E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.87180324397955E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9453354879935494E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2838-1241-8F49-A8C24FC4D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Streptomyces coelicolor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$U$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$U$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.131025484113753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.111009118384247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2903447666789299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7639567863459397E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02547629821891E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2654475995757701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0797848852249597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11136394365624699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0210558318347E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1211751750484301E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0395255032618096E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.52367755292484E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.38710108534329E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.00421569937702E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5317525632999593E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2276938780135701E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3677482585034901E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2420447626930099E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.49675303613981E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2723917020905702E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2838-1241-8F49-A8C24FC4D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saccharomyces cerevisiae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$U$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$U$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.3331783331350698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4745493279119301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3367145004487799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9987780216928098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26334173218128E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8686968087982401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7622441144982795E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8854800860791699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1987499053777799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5832729553491204E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4914191169314197E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5167886842645901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0476247120781201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2920636293837099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3126101672920698E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0353400452023794E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8446789873801003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8271928022233505E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3615217414812902E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4102278502914297E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2838-1241-8F49-A8C24FC4D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rubrobacter xylanophilus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$U$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$U$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.117431278221199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.106918308820835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52293168512829E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.34496839669722E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5522656342810009E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5970998015980899E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4613327234352905E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.109766103362173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6066479626333801E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9468289557975601E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.105685929896513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8201459536336801E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6641556483478901E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.66371487858847E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5147358101559106E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.23638915195676E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7143456678549999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.06861686005393E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1486693083245498E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8540286022935502E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2838-1241-8F49-A8C24FC4D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiribacter curvatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$53:$U$53</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$U$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.11910853009170801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4882639211902006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3269093256874599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.29013558451295E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8269266816159006E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6751178467540897E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8473858500586597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7307262414695594E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4464916726255299E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0085738286483897E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.103101157293308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7822802913018999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4343425227189099E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0719993335323399E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3103934241858303E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4098428941357697E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.23125039050839E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3445637760946301E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1083981866525901E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2896635032594401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2838-1241-8F49-A8C24FC4D245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1250327232"/>
+        <c:axId val="1275699680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1250327232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275699680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275699680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250327232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2927,6 +4586,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE54EC77-F574-C64B-9AAA-CAC5A2F7049F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3257,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:U58"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="91" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3847,8 +5542,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>60</v>
+      <c r="A54" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B54">
         <v>9.3613566706673201E-2</v>
@@ -3912,8 +5607,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>61</v>
+      <c r="A55" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B55">
         <v>0.131025484113753</v>
@@ -3977,8 +5672,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>62</v>
+      <c r="A56" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B56">
         <v>5.3331783331350698E-2</v>
@@ -4042,8 +5737,8 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>63</v>
+      <c r="A57" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B57">
         <v>0.117431278221199</v>
@@ -4107,8 +5802,8 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>64</v>
+      <c r="A58" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B58">
         <v>0.11910853009170801</v>
@@ -4174,6 +5869,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
